--- a/natmiOut/OldD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.60428459290846</v>
+        <v>1.678101666666667</v>
       </c>
       <c r="H2">
-        <v>1.60428459290846</v>
+        <v>5.034305</v>
       </c>
       <c r="I2">
-        <v>0.005455542394640851</v>
+        <v>0.00557042851373107</v>
       </c>
       <c r="J2">
-        <v>0.005455542394640851</v>
+        <v>0.005570428513731072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N2">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q2">
-        <v>22.7859429661818</v>
+        <v>24.43639564668</v>
       </c>
       <c r="R2">
-        <v>22.7859429661818</v>
+        <v>219.92756082012</v>
       </c>
       <c r="S2">
-        <v>0.001917566385970775</v>
+        <v>0.001950639872146724</v>
       </c>
       <c r="T2">
-        <v>0.001917566385970775</v>
+        <v>0.001950639872146724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.60428459290846</v>
+        <v>1.678101666666667</v>
       </c>
       <c r="H3">
-        <v>1.60428459290846</v>
+        <v>5.034305</v>
       </c>
       <c r="I3">
-        <v>0.005455542394640851</v>
+        <v>0.00557042851373107</v>
       </c>
       <c r="J3">
-        <v>0.005455542394640851</v>
+        <v>0.005570428513731072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N3">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q3">
-        <v>23.0282568933246</v>
+        <v>24.16492802132889</v>
       </c>
       <c r="R3">
-        <v>23.0282568933246</v>
+        <v>217.48435219196</v>
       </c>
       <c r="S3">
-        <v>0.001937958477807012</v>
+        <v>0.001928969917965948</v>
       </c>
       <c r="T3">
-        <v>0.001937958477807012</v>
+        <v>0.001928969917965949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.60428459290846</v>
+        <v>1.678101666666667</v>
       </c>
       <c r="H4">
-        <v>1.60428459290846</v>
+        <v>5.034305</v>
       </c>
       <c r="I4">
-        <v>0.005455542394640851</v>
+        <v>0.00557042851373107</v>
       </c>
       <c r="J4">
-        <v>0.005455542394640851</v>
+        <v>0.005570428513731072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N4">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q4">
-        <v>4.292361339160675</v>
+        <v>4.844247120803888</v>
       </c>
       <c r="R4">
-        <v>4.292361339160675</v>
+        <v>43.598224087235</v>
       </c>
       <c r="S4">
-        <v>0.0003612265611579493</v>
+        <v>0.0003866929362659853</v>
       </c>
       <c r="T4">
-        <v>0.0003612265611579493</v>
+        <v>0.0003866929362659855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.60428459290846</v>
+        <v>1.678101666666667</v>
       </c>
       <c r="H5">
-        <v>1.60428459290846</v>
+        <v>5.034305</v>
       </c>
       <c r="I5">
-        <v>0.005455542394640851</v>
+        <v>0.00557042851373107</v>
       </c>
       <c r="J5">
-        <v>0.005455542394640851</v>
+        <v>0.005570428513731072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N5">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q5">
-        <v>14.72023111650018</v>
+        <v>16.33727176801222</v>
       </c>
       <c r="R5">
-        <v>14.72023111650018</v>
+        <v>147.03544591211</v>
       </c>
       <c r="S5">
-        <v>0.001238790969705115</v>
+        <v>0.001304125787352413</v>
       </c>
       <c r="T5">
-        <v>0.001238790969705115</v>
+        <v>0.001304125787352414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>240.52214960072</v>
+        <v>242.032496</v>
       </c>
       <c r="H6">
-        <v>240.52214960072</v>
+        <v>726.097488</v>
       </c>
       <c r="I6">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783751</v>
       </c>
       <c r="J6">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N6">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q6">
-        <v>3416.17940303823</v>
+        <v>3524.459780412288</v>
       </c>
       <c r="R6">
-        <v>3416.17940303823</v>
+        <v>31720.13802371059</v>
       </c>
       <c r="S6">
-        <v>0.2874908798566838</v>
+        <v>0.2813406639364078</v>
       </c>
       <c r="T6">
-        <v>0.2874908798566838</v>
+        <v>0.2813406639364078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>240.52214960072</v>
+        <v>242.032496</v>
       </c>
       <c r="H7">
-        <v>240.52214960072</v>
+        <v>726.097488</v>
       </c>
       <c r="I7">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783751</v>
       </c>
       <c r="J7">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N7">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q7">
-        <v>3452.508285639364</v>
+        <v>3485.306022179371</v>
       </c>
       <c r="R7">
-        <v>3452.508285639364</v>
+        <v>31367.75419961434</v>
       </c>
       <c r="S7">
-        <v>0.2905481614543427</v>
+        <v>0.2782152078315956</v>
       </c>
       <c r="T7">
-        <v>0.2905481614543427</v>
+        <v>0.2782152078315957</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>240.52214960072</v>
+        <v>242.032496</v>
       </c>
       <c r="H8">
-        <v>240.52214960072</v>
+        <v>726.097488</v>
       </c>
       <c r="I8">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783751</v>
       </c>
       <c r="J8">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N8">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q8">
-        <v>643.5316905252232</v>
+        <v>698.6854522455305</v>
       </c>
       <c r="R8">
-        <v>643.5316905252232</v>
+        <v>6288.169070209775</v>
       </c>
       <c r="S8">
-        <v>0.05415684309793995</v>
+        <v>0.05577269745279161</v>
       </c>
       <c r="T8">
-        <v>0.05415684309793995</v>
+        <v>0.05577269745279162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>240.52214960072</v>
+        <v>242.032496</v>
       </c>
       <c r="H9">
-        <v>240.52214960072</v>
+        <v>726.097488</v>
       </c>
       <c r="I9">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783751</v>
       </c>
       <c r="J9">
-        <v>0.8179214522144013</v>
+        <v>0.8034225480783752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N9">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q9">
-        <v>2206.928649948115</v>
+        <v>2356.323661662731</v>
       </c>
       <c r="R9">
-        <v>2206.928649948115</v>
+        <v>21206.91295496458</v>
       </c>
       <c r="S9">
-        <v>0.1857255678054349</v>
+        <v>0.1880939788575801</v>
       </c>
       <c r="T9">
-        <v>0.1857255678054349</v>
+        <v>0.1880939788575801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.4889752554377</v>
+        <v>54.59360333333333</v>
       </c>
       <c r="H10">
-        <v>49.4889752554377</v>
+        <v>163.78081</v>
       </c>
       <c r="I10">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="J10">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N10">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q10">
-        <v>702.9008273281655</v>
+        <v>794.98812100056</v>
       </c>
       <c r="R10">
-        <v>702.9008273281655</v>
+        <v>7154.89308900504</v>
       </c>
       <c r="S10">
-        <v>0.0591530928149864</v>
+        <v>0.06346007607375534</v>
       </c>
       <c r="T10">
-        <v>0.0591530928149864</v>
+        <v>0.06346007607375535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.4889752554377</v>
+        <v>54.59360333333333</v>
       </c>
       <c r="H11">
-        <v>49.4889752554377</v>
+        <v>163.78081</v>
       </c>
       <c r="I11">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="J11">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N11">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q11">
-        <v>710.3757279769824</v>
+        <v>786.1564773935912</v>
       </c>
       <c r="R11">
-        <v>710.3757279769824</v>
+        <v>7075.408296542321</v>
       </c>
       <c r="S11">
-        <v>0.0597821481164903</v>
+        <v>0.06275508846406734</v>
       </c>
       <c r="T11">
-        <v>0.0597821481164903</v>
+        <v>0.06275508846406735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.4889752554377</v>
+        <v>54.59360333333333</v>
       </c>
       <c r="H12">
-        <v>49.4889752554377</v>
+        <v>163.78081</v>
       </c>
       <c r="I12">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="J12">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N12">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q12">
-        <v>132.4107736495858</v>
+        <v>157.5976658715411</v>
       </c>
       <c r="R12">
-        <v>132.4107736495858</v>
+        <v>1418.37899284387</v>
       </c>
       <c r="S12">
-        <v>0.01114311788929126</v>
+        <v>0.01258026327823234</v>
       </c>
       <c r="T12">
-        <v>0.01114311788929126</v>
+        <v>0.01258026327823234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.4889752554377</v>
+        <v>54.59360333333333</v>
       </c>
       <c r="H13">
-        <v>49.4889752554377</v>
+        <v>163.78081</v>
       </c>
       <c r="I13">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="J13">
-        <v>0.1682925858459441</v>
+        <v>0.1812224912924368</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N13">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O13">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P13">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q13">
-        <v>454.0897274080901</v>
+        <v>531.4997012209578</v>
       </c>
       <c r="R13">
-        <v>454.0897274080901</v>
+        <v>4783.49731098862</v>
       </c>
       <c r="S13">
-        <v>0.03821422702517611</v>
+        <v>0.04242706347638175</v>
       </c>
       <c r="T13">
-        <v>0.03821422702517611</v>
+        <v>0.04242706347638176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.44968561543163</v>
+        <v>2.947608</v>
       </c>
       <c r="H14">
-        <v>2.44968561543163</v>
+        <v>8.842824</v>
       </c>
       <c r="I14">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456939</v>
       </c>
       <c r="J14">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456941</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N14">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O14">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P14">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q14">
-        <v>34.79332592548688</v>
+        <v>42.922855468224</v>
       </c>
       <c r="R14">
-        <v>34.79332592548688</v>
+        <v>386.305699214016</v>
       </c>
       <c r="S14">
-        <v>0.002928055790794383</v>
+        <v>0.003426324999533398</v>
       </c>
       <c r="T14">
-        <v>0.002928055790794383</v>
+        <v>0.003426324999533398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.44968561543163</v>
+        <v>2.947608</v>
       </c>
       <c r="H15">
-        <v>2.44968561543163</v>
+        <v>8.842824</v>
       </c>
       <c r="I15">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456939</v>
       </c>
       <c r="J15">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456941</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N15">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P15">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q15">
-        <v>35.16333068920797</v>
+        <v>42.44601895699201</v>
       </c>
       <c r="R15">
-        <v>35.16333068920797</v>
+        <v>382.0141706129281</v>
       </c>
       <c r="S15">
-        <v>0.002959193791034868</v>
+        <v>0.00338826143546474</v>
       </c>
       <c r="T15">
-        <v>0.002959193791034868</v>
+        <v>0.003388261435464741</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.44968561543163</v>
+        <v>2.947608</v>
       </c>
       <c r="H16">
-        <v>2.44968561543163</v>
+        <v>8.842824</v>
       </c>
       <c r="I16">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456939</v>
       </c>
       <c r="J16">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456941</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N16">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O16">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P16">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q16">
-        <v>6.554283370454792</v>
+        <v>8.508984795671999</v>
       </c>
       <c r="R16">
-        <v>6.554283370454792</v>
+        <v>76.58086316104799</v>
       </c>
       <c r="S16">
-        <v>0.000551580134031091</v>
+        <v>0.0006792313094743616</v>
       </c>
       <c r="T16">
-        <v>0.000551580134031091</v>
+        <v>0.0006792313094743618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.44968561543163</v>
+        <v>2.947608</v>
       </c>
       <c r="H17">
-        <v>2.44968561543163</v>
+        <v>8.842824</v>
       </c>
       <c r="I17">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456939</v>
       </c>
       <c r="J17">
-        <v>0.008330419545013788</v>
+        <v>0.009784532115456941</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N17">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O17">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P17">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q17">
-        <v>22.47727029313754</v>
+        <v>28.696636156272</v>
       </c>
       <c r="R17">
-        <v>22.47727029313754</v>
+        <v>258.269725406448</v>
       </c>
       <c r="S17">
-        <v>0.001891589829153447</v>
+        <v>0.002290714370984439</v>
       </c>
       <c r="T17">
-        <v>0.001891589829153447</v>
+        <v>0.00229071437098444</v>
       </c>
     </row>
   </sheetData>
